--- a/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,174 +43,198 @@
     <t>waste</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poorly</t>
+    <t>disappointing</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>paid</t>
+    <t>junk</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>piece</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>hold</t>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>received</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>classic</t>
   </si>
   <si>
     <t>elf</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>strategy</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>helicopter</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>wait</t>
+  </si>
+  <si>
     <t>grandchildren</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
@@ -220,22 +244,22 @@
     <t>family</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>lego</t>
   </si>
   <si>
     <t>ages</t>
   </si>
   <si>
-    <t>lego</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>book</t>
   </si>
   <si>
     <t>fun</t>
@@ -599,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>0.90625</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>0.8924731182795699</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="L4">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M4">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K5">
-        <v>0.8723404255319149</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.970873786407767</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>0.8701298701298701</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9623655913978495</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C7">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7">
+        <v>0.859375</v>
+      </c>
+      <c r="L7">
         <v>55</v>
       </c>
-      <c r="K7">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="L7">
-        <v>56</v>
-      </c>
       <c r="M7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -918,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9565217391304348</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>0.859375</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9444444444444444</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>0.8490566037735849</v>
+        <v>0.84375</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9354838709677419</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.8008298755186722</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>386</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>386</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9090909090909091</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>0.7925311203319502</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L11">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.90625</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C12">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="D12">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>0.7857142857142857</v>
+        <v>0.7833572453371592</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>546</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>546</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8947368421052632</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,16 +1213,16 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K13">
-        <v>0.7661406025824964</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>534</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>534</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>163</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8888888888888888</v>
+        <v>0.9140625</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K14">
-        <v>0.7321428571428571</v>
+        <v>0.7003058103975535</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8688524590163934</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="C15">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K15">
-        <v>0.7033639143730887</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L15">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.859375</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K16">
-        <v>0.6909090909090909</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8253968253968254</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>0.5795081967213115</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L17">
-        <v>707</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>707</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>513</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8157894736842105</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K18">
-        <v>0.5662650602409639</v>
+        <v>0.5967213114754099</v>
       </c>
       <c r="L18">
-        <v>94</v>
+        <v>728</v>
       </c>
       <c r="M18">
-        <v>94</v>
+        <v>728</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>72</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8151658767772512</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C19">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K19">
-        <v>0.5403899721448467</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L19">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="M19">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1542,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.8</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,16 +1563,16 @@
         <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K20">
-        <v>0.5217391304347826</v>
+        <v>0.479108635097493</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1560,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7831325301204819</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1586,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K21">
-        <v>0.5128205128205128</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L21">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,13 +1642,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7321428571428571</v>
+        <v>0.7835051546391752</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1636,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K22">
-        <v>0.4714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1660,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,13 +1692,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7246376811594203</v>
+        <v>0.7819905213270142</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1686,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K23">
-        <v>0.4545454545454545</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1710,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,13 +1742,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.703125</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1736,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>0.2833333333333333</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>469</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>469</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1760,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>86</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1768,13 +1792,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6951219512195121</v>
+        <v>0.765625</v>
       </c>
       <c r="C25">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1786,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K25">
-        <v>0.2667099286177806</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L25">
-        <v>411</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>411</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1810,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1818,13 +1842,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6907216494845361</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C26">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1836,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K26">
-        <v>0.1647677475898335</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L26">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1860,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>953</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,13 +1892,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6896551724137931</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1886,7 +1910,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27">
+        <v>0.2147239263803681</v>
+      </c>
+      <c r="L27">
+        <v>245</v>
+      </c>
+      <c r="M27">
+        <v>245</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>896</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1894,13 +1942,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6756756756756757</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1912,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1920,13 +1968,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1938,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1946,13 +1994,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6111111111111112</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1964,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1972,13 +2020,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6041666666666666</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1990,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1998,13 +2046,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6028985507246377</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C32">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2016,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2024,13 +2072,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.599009900990099</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="C33">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="D33">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2042,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2050,13 +2098,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5892857142857143</v>
+        <v>0.671875</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2068,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2076,13 +2124,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5221518987341772</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="C35">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2094,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>151</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2102,13 +2150,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5042016806722689</v>
+        <v>0.6492753623188405</v>
       </c>
       <c r="C36">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="D36">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2120,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>59</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2128,13 +2176,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.492063492063492</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2146,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2154,13 +2202,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4054054054054054</v>
+        <v>0.5891089108910891</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2172,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2180,13 +2228,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2826086956521739</v>
+        <v>0.5569620253164557</v>
       </c>
       <c r="C39">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="D39">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2198,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>198</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2206,13 +2254,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2341772151898734</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C40">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2224,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>242</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2232,13 +2280,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.145</v>
+        <v>0.5</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2250,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>171</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2258,13 +2306,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0947136563876652</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C42">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2276,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>411</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2284,13 +2332,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0549618320610687</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2302,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>619</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2310,13 +2358,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.05192878338278932</v>
+        <v>0.2943037974683544</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2328,7 +2376,189 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>639</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.29</v>
+      </c>
+      <c r="C45">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>58</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.286231884057971</v>
+      </c>
+      <c r="C46">
+        <v>79</v>
+      </c>
+      <c r="D46">
+        <v>79</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="C47">
+        <v>33</v>
+      </c>
+      <c r="D47">
+        <v>33</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.1695906432748538</v>
+      </c>
+      <c r="C48">
+        <v>29</v>
+      </c>
+      <c r="D48">
+        <v>29</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.145374449339207</v>
+      </c>
+      <c r="C49">
+        <v>66</v>
+      </c>
+      <c r="D49">
+        <v>66</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.1364985163204748</v>
+      </c>
+      <c r="C50">
+        <v>92</v>
+      </c>
+      <c r="D50">
+        <v>92</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.09618320610687023</v>
+      </c>
+      <c r="C51">
+        <v>63</v>
+      </c>
+      <c r="D51">
+        <v>63</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
